--- a/supp_data/pcawg_negative_sig_sig_survivals.xlsx
+++ b/supp_data/pcawg_negative_sig_sig_survivals.xlsx
@@ -7,102 +7,319 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Liver_HCC__SBS40+SBS29" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Liver_HCC__SBS29+SBS40" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Liver_HCC__SBS40+SBS29" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="513">
+  <si>
+    <t xml:space="preserve">Thy_AdenoCA__SBS40+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surv(survival_time, vital_status) ~ age_at_diagnosis + log(total_muts + 1) + exists__1 + exists__2 + exists__1 * exists__2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">coef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exp(coef)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se(coef)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pr(&gt;|z|)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_at_diagnosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log(total_muts + 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APOBEC*SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model log-likelihoods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">initial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.791759e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.947548e-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best model is Model 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breast_AdenoCA__CL SBS1+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL SBS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APOBEC*CL SBS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-17.50231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-16.68693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skin_Melanoma__UV+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APOBEC*UV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-218.7649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-216.7786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surv(survival_time, vital_status) ~ log(total_muts + 1) + exists__1 + exists__2 + exists__1 * exists__2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-217.0658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 2 and 1	nested: TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variance test </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  H0: Model 1 and Model 2 are indistinguishable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  H1: Model 1 and Model 2 are distinguishable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robust likelihood ratio test of distinguishable models </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  H0: Both models fit equally well </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  H1: Full model fits better than reduced model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.575,   p = 0.449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classical likelihood ratio test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.575,   p = 0.448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surv(survival_time, vital_status) ~ age_at_diagnosis + exists__1 + exists__2 + exists__1 * exists__2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-217.3256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 3 and 2	nested: FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-nested likelihood ratio test </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  H0: Model fits are equally close to true Model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  H1A: Model 1 fits better than Model 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.199,   p = 0.579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  H1B: Model 2 fits better than Model 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.199,   p = 0.4212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  H1: Model fits not equally close to true Model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.199,   two-sided p = 0.8424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surv(survival_time, vital_status) ~ exists__1 + exists__2 + exists__1 * exists__2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-217.5540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 4 and 2	nested: TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.976,   p = 0.309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.976,   p = 0.323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surv(survival_time, vital_status) ~ age_at_diagnosis + log(total_muts + 1) + status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusAPOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusUV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusAPOBEC+UV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 5 and 4	nested: FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -2.788,   p = 0.997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -2.788,   p = 0.002656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -2.788,   two-sided p = 0.005311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surv(survival_time, vital_status) ~ log(total_muts + 1) + status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 6 and 4	nested: FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.601,   p = 0.945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.601,   p = 0.05472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.601,   two-sided p = 0.1094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surv(survival_time, vital_status) ~ age_at_diagnosis + status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 7 and 4	nested: FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -2.539,   p = 0.994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -2.539,   p = 0.005556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -2.539,   two-sided p = 0.01111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surv(survival_time, vital_status) ~ status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 8 and 4	nested: FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.247,   p = 0.597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.247,   p = 0.4026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.247,   two-sided p = 0.8052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best model is Model 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.166504670669262</t>
+  </si>
   <si>
     <t xml:space="preserve">Thy_AdenoCA__APOBEC+SBS40</t>
   </si>
   <si>
-    <t xml:space="preserve">Model 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surv(survival_time, vital_status) ~ age_at_diagnosis + log(total_muts + 1) + exists__1 + exists__2 + exists__1 * exists__2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">coef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp(coef)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">se(coef)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pr(&gt;|z|)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age_at_diagnosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">log(total_muts + 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APOBEC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APOBEC*SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model log-likelihoods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">initial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">final</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.791759e+00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.947548e-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best model is Model 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Breast_AdenoCA__APOBEC+Ageing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ageing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ageing*APOBEC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-17.50231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-16.68693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNS_GBM__SBS40+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBS40*SBS5</t>
+    <t xml:space="preserve">CNS_GBM__CL SBS5+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL SBS5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL SBS5*SBS40</t>
   </si>
   <si>
     <t xml:space="preserve">-78.09222</t>
@@ -111,7 +328,7 @@
     <t xml:space="preserve">-74.64116</t>
   </si>
   <si>
-    <t xml:space="preserve">Eso_AdenoCA__SBS40+SBS5</t>
+    <t xml:space="preserve">Eso_AdenoCA__CL SBS5+SBS40</t>
   </si>
   <si>
     <t xml:space="preserve">-172.9890</t>
@@ -120,7 +337,7 @@
     <t xml:space="preserve">-172.7647</t>
   </si>
   <si>
-    <t xml:space="preserve">Lymph_CLL__SBS40+SBS5</t>
+    <t xml:space="preserve">Lymph_CLL__CL SBS5+SBS40</t>
   </si>
   <si>
     <t xml:space="preserve">-134.7144</t>
@@ -129,7 +346,7 @@
     <t xml:space="preserve">-124.7541</t>
   </si>
   <si>
-    <t xml:space="preserve">Ovary_AdenoCA__SBS40+SBS5</t>
+    <t xml:space="preserve">Ovary_AdenoCA__CL SBS5+SBS40</t>
   </si>
   <si>
     <t xml:space="preserve">-340.0140</t>
@@ -138,7 +355,7 @@
     <t xml:space="preserve">-333.9548</t>
   </si>
   <si>
-    <t xml:space="preserve">Panc_AdenoCA__SBS40+SBS5</t>
+    <t xml:space="preserve">Panc_AdenoCA__CL SBS5+SBS40</t>
   </si>
   <si>
     <t xml:space="preserve">-766.4800</t>
@@ -147,109 +364,43 @@
     <t xml:space="preserve">-764.1494</t>
   </si>
   <si>
-    <t xml:space="preserve">Skin_Melanoma__SBS40+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-218.7649</t>
+    <t xml:space="preserve">Skin_Melanoma__CL SBS5+SBS40</t>
   </si>
   <si>
     <t xml:space="preserve">-216.9176</t>
   </si>
   <si>
-    <t xml:space="preserve">Model 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surv(survival_time, vital_status) ~ log(total_muts + 1) + exists__1 + exists__2 + exists__1 * exists__2</t>
-  </si>
-  <si>
     <t xml:space="preserve">-217.1548</t>
   </si>
   <si>
-    <t xml:space="preserve">PLR test for models 2 and 1	nested: TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variance test </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H0: Model 1 and Model 2 are indistinguishable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H1: Model 1 and Model 2 are distinguishable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robust likelihood ratio test of distinguishable models </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H0: Both models fit equally well </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H1: Full model fits better than reduced model </t>
+    <t xml:space="preserve">Fine: p = 0.713</t>
   </si>
   <si>
     <t xml:space="preserve">    LR = 0.474,   p = 0.498</t>
   </si>
   <si>
-    <t xml:space="preserve">Classical likelihood ratio test</t>
-  </si>
-  <si>
     <t xml:space="preserve">    LR = 0.474,   p = 0.491</t>
   </si>
   <si>
-    <t xml:space="preserve">Model 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surv(survival_time, vital_status) ~ age_at_diagnosis + exists__1 + exists__2 + exists__1 * exists__2</t>
-  </si>
-  <si>
     <t xml:space="preserve">-217.3566</t>
   </si>
   <si>
-    <t xml:space="preserve">PLR test for models 3 and 2	nested: FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-nested likelihood ratio test </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H0: Model fits are equally close to true Model </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H1A: Model 1 fits better than Model 2 </t>
+    <t xml:space="preserve">Fine: p = 0.45</t>
   </si>
   <si>
     <t xml:space="preserve">    z = -0.168,   p = 0.567</t>
   </si>
   <si>
-    <t xml:space="preserve">  H1B: Model 2 fits better than Model 1 </t>
-  </si>
-  <si>
     <t xml:space="preserve">    z = -0.168,   p = 0.4334</t>
   </si>
   <si>
-    <t xml:space="preserve">  H1: Model fits not equally close to true Model </t>
-  </si>
-  <si>
     <t xml:space="preserve">    z = -0.168,   two-sided p = 0.8669</t>
   </si>
   <si>
-    <t xml:space="preserve">Model 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surv(survival_time, vital_status) ~ exists__1 + exists__2 + exists__1 * exists__2</t>
-  </si>
-  <si>
     <t xml:space="preserve">-217.5302</t>
   </si>
   <si>
-    <t xml:space="preserve">PLR test for models 4 and 2	nested: TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.278</t>
+    <t xml:space="preserve">Fine: p = 0.48</t>
   </si>
   <si>
     <t xml:space="preserve">    LR = 0.751,   p = 0.383</t>
@@ -258,25 +409,13 @@
     <t xml:space="preserve">    LR = 0.751,   p = 0.386</t>
   </si>
   <si>
-    <t xml:space="preserve">Model 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surv(survival_time, vital_status) ~ age_at_diagnosis + log(total_muts + 1) + status</t>
+    <t xml:space="preserve">statusCL SBS5</t>
   </si>
   <si>
     <t xml:space="preserve">statusSBS40</t>
   </si>
   <si>
-    <t xml:space="preserve">statusSBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS40+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 5 and 4	nested: FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.491</t>
+    <t xml:space="preserve">statusCL SBS5+SBS40</t>
   </si>
   <si>
     <t xml:space="preserve">    z = -3.184,   p = 0.999</t>
@@ -288,16 +427,7 @@
     <t xml:space="preserve">    z = -3.184,   two-sided p = 0.001455</t>
   </si>
   <si>
-    <t xml:space="preserve">Model 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surv(survival_time, vital_status) ~ log(total_muts + 1) + status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 6 and 4	nested: FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.317</t>
+    <t xml:space="preserve">Fine: p = 0.307</t>
   </si>
   <si>
     <t xml:space="preserve">    z = -1.838,   p = 0.967</t>
@@ -309,16 +439,7 @@
     <t xml:space="preserve">    z = -1.838,   two-sided p = 0.06606</t>
   </si>
   <si>
-    <t xml:space="preserve">Model 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surv(survival_time, vital_status) ~ age_at_diagnosis + status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 7 and 4	nested: FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.468</t>
+    <t xml:space="preserve">Fine: p = 0.459</t>
   </si>
   <si>
     <t xml:space="preserve">    z = -3.033,   p = 0.999</t>
@@ -330,34 +451,22 @@
     <t xml:space="preserve">    z = -3.033,   two-sided p = 0.002421</t>
   </si>
   <si>
-    <t xml:space="preserve">Model 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surv(survival_time, vital_status) ~ status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 8 and 4	nested: FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 4.86e-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.375,   p = 0.646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.375,   p = 0.3537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.375,   two-sided p = 0.7074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best model is Model 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.995750773408572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uterus_AdenoCA__SBS40+SBS5</t>
+    <t xml:space="preserve">Fine: p = &lt;2e-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.077,   p = 0.531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.077,   p = 0.4691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.077,   two-sided p = 0.9383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.995750773241929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uterus_AdenoCA__CL SBS5+SBS40</t>
   </si>
   <si>
     <t xml:space="preserve">-15.10441</t>
@@ -366,532 +475,754 @@
     <t xml:space="preserve">-13.65623</t>
   </si>
   <si>
-    <t xml:space="preserve">Liver_HCC__Ageing+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ageing*SBS5</t>
+    <t xml:space="preserve">Eso_AdenoCA__HR+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR*SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-169.7384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymph_BNHL__HR+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-28.17861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-22.13278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panc_AdenoCA__HR+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-763.3157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-764.9422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.253,   p = 0.0994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.253,   p = 0.0713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-764.5103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 3 and 1	nested: TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.389,   p = 0.119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.389,   p = 0.122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-765.9664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 4 and 3	nested: TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.912,   p = 0.124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.912,   p = 0.0879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusHR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusHR+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 5 and 3	nested: FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.133,   p = 0.871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.133,   p = 0.1287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.133,   two-sided p = 0.2573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 6 and 3	nested: FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.168,   p = 0.4335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 7 and 3	nested: FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.728,   p = 0.767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.728,   p = 0.2334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.728,   two-sided p = 0.4668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 8 and 3	nested: FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.516,   p = 0.303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.516,   p = 0.6969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.516,   two-sided p = 0.6061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best model is Model 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.248543547826961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNS_Medullo__ROS+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROS*SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-58.13424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-52.80169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-54.60912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.615,   p = 0.028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.615,   p = 0.0573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-53.50381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.404,   p = 0.152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.404,   p = 0.236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-54.61859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.230,   p = 0.148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.230,   p = 0.135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusROS+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.404,   p = 0.657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.404,   p = 0.3432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.404,   two-sided p = 0.6863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -11.159,   p = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -11.159,   p = &lt; 2.2e-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -11.159,   two-sided p = &lt; 2.2e-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.143,   p = 0.557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.143,   p = 0.4433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.143,   two-sided p = 0.8867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.454,   p = 0.325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.454,   p = 0.675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.454,   two-sided p = 0.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.855838878290934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ovary_AdenoCA__ROS+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-334.1103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panc_AdenoCA__ROS+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-759.1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-760.7122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.026,   p = 0.086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.026,   p = 0.082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-759.9462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.494,   p = 0.196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.494,   p = 0.222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-761.4301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.968,   p = 0.0901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.968,   p = 0.0849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.646,   p = 0.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.646,   p = 0.04986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.646,   two-sided p = 0.09972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.318,   p = 0.625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.318,   p = 0.3752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.318,   two-sided p = 0.7504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.069,   p = 0.472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.069,   p = 0.5277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.069,   two-sided p = 0.9446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.520,   p = 0.301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.520,   p = 0.6985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.520,   two-sided p = 0.6029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.264785661679526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prost_AdenoCA__ROS+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-24.91025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-20.57642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-20.58395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.015,   p = 0.923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.015,   p = 0.902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-21.88256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.938,   p = 0.826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.938,   p = 0.1741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.938,   two-sided p = 0.3482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-21.90772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.648,   p = 0.0679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.648,   p = 0.104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.766,   p = 0.778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.766,   p = 0.2218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.766,   two-sided p = 0.4437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.091,   p = 0.464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.091,   p = 0.5362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.091,   two-sided p = 0.9277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -5.370,   p = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -5.370,   p = 3.944e-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -5.370,   two-sided p = 7.888e-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.744,   p = 0.228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.744,   p = 0.7716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.744,   two-sided p = 0.4568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.999060976428397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNS_Medullo__SBS39+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBS39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBS39*SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-55.56232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liver_HCC__SBS29+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBS29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBS29*SBS40</t>
   </si>
   <si>
     <t xml:space="preserve">-340.6947</t>
   </si>
   <si>
-    <t xml:space="preserve">-339.9167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lung_AdenoCA__Ageing+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-25.19122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-24.42273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lung_SCC__Ageing+SBS5</t>
+    <t xml:space="preserve">-337.6410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-337.7143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.146,   p = 0.729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.146,   p = 0.702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-337.9715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.261,   p = 0.603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.261,   p = 0.397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.261,   two-sided p = 0.7941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-337.9913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.554,   p = 0.499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.554,   p = 0.457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS29+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -4.023,   p = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -4.023,   p = 2.869e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -4.023,   two-sided p = 5.739e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -2.067,   p = 0.981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -2.067,   p = 0.01936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -2.067,   two-sided p = 0.03872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -9.389,   p = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -9.389,   p = &lt; 2.2e-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -9.389,   two-sided p = &lt; 2.2e-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.855,   p = 0.804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.855,   p = 0.1962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.855,   two-sided p = 0.3924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.0282879300777376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymph_BNHL__SBS34+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBS34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBS34*SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-22.21631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-25.82102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 7.209,   p = 0.0114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 7.209,   p = 0.00725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-22.75788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.083,   p = 0.318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.083,   p = 0.298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-27.75874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 10.002,   p = 0.00294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 10.002,   p = 0.00156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS34+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.556,   p = 0.711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.556,   p = 0.2892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.556,   two-sided p = 0.5785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.889,   p = 0.813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.889,   p = 0.1869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.889,   two-sided p = 0.3738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.288,   p = 0.387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.288,   p = 0.6134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.288,   two-sided p = 0.7732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.106,   p = 0.866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.106,   p = 0.1344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.106,   two-sided p = 0.2689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.998649715752122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skin_Melanoma__UV+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBS40*UV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-217.0472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eso_AdenoCA__SBS40+HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymph_BNHL__SBS40+HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panc_AdenoCA__SBS40+HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breast_AdenoCA__CL SBS5+HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL SBS5*HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-16.37856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNS_Medullo__SBS40+ROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ovary_AdenoCA__SBS40+ROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panc_AdenoCA__SBS40+ROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prost_AdenoCA__SBS40+ROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColoRect_AdenoCA__MMR+ROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMR*ROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-6.579251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.482651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColoRect_AdenoCA__PolE+ROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PolE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PolE*ROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.250003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNS_Medullo__SBS40+SBS39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColoRect_AdenoCA__ROS+MMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColoRect_AdenoCA__ROS+PolE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColoRect_AdenoCA__CL SBS1+SBS28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBS28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL SBS1*SBS28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5.646689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lung_SCC__CL SBS1+Tobacco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tobacco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL SBS1*Tobacco</t>
   </si>
   <si>
     <t xml:space="preserve">-33.50507</t>
   </si>
   <si>
-    <t xml:space="preserve">-31.58797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eso_AdenoCA__SBS40+HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HR*SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-169.7384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lymph_BNHL__SBS40+HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-28.17861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-22.13278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panc_AdenoCA__SBS40+HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-763.3157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-764.9422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.253,   p = 0.0994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.253,   p = 0.0713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-764.5103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 3 and 1	nested: TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.389,   p = 0.119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.389,   p = 0.122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-765.9664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 4 and 3	nested: TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.912,   p = 0.124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.912,   p = 0.0879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusHR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusHR+SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 5 and 3	nested: FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.133,   p = 0.871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.133,   p = 0.1287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.133,   two-sided p = 0.2573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 6 and 3	nested: FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.168,   p = 0.4335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 7 and 3	nested: FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.728,   p = 0.767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.728,   p = 0.2334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.728,   two-sided p = 0.4668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 8 and 3	nested: FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.516,   p = 0.303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.516,   p = 0.6969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.516,   two-sided p = 0.6061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best model is Model 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.248543547826961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Breast_AdenoCA__SBS5+HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HR*SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-16.37856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNS_Medullo__SBS40+ROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROS*SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-58.13424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-52.80169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-54.60912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.615,   p = 0.028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.615,   p = 0.0573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-53.50381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.404,   p = 0.152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.404,   p = 0.236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-54.61859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.230,   p = 0.148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.230,   p = 0.135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusROS+SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.404,   p = 0.657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.404,   p = 0.3432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.404,   two-sided p = 0.6863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -11.159,   p = 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -11.159,   p = &lt; 2.2e-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -11.159,   two-sided p = &lt; 2.2e-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.143,   p = 0.557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.143,   p = 0.4433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.143,   two-sided p = 0.8867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.454,   p = 0.325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.454,   p = 0.675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.454,   two-sided p = 0.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.855838878290934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ovary_AdenoCA__SBS40+ROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-334.1103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panc_AdenoCA__SBS40+ROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-759.1994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-760.7122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.026,   p = 0.086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.026,   p = 0.082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-759.9462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.494,   p = 0.196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.494,   p = 0.222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-761.4301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.968,   p = 0.0901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.968,   p = 0.0849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.646,   p = 0.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.646,   p = 0.04986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.646,   two-sided p = 0.09972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.318,   p = 0.625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.318,   p = 0.3752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.318,   two-sided p = 0.7504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.069,   p = 0.472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.069,   p = 0.5277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.069,   two-sided p = 0.9446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.520,   p = 0.301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.520,   p = 0.6985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.520,   two-sided p = 0.6029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.264785661679526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prost_AdenoCA__SBS40+ROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-24.91025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-20.57642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-20.58395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.015,   p = 0.923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.015,   p = 0.902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-21.88256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.938,   p = 0.826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.938,   p = 0.1741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.938,   two-sided p = 0.3482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-21.90772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.648,   p = 0.0679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.648,   p = 0.104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.766,   p = 0.778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.766,   p = 0.2218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.766,   two-sided p = 0.4437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.091,   p = 0.464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.091,   p = 0.5362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.091,   two-sided p = 0.9277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -5.370,   p = 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -5.370,   p = 3.944e-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -5.370,   two-sided p = 7.888e-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.744,   p = 0.228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.744,   p = 0.7716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.744,   two-sided p = 0.4568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.999060976428397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNS_Medullo__SBS40+SBS39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBS39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBS39*SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-55.56232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ColoRect_AdenoCA__ROS+MMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR*ROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-6.579251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.482651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ColoRect_AdenoCA__ROS+PolE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PolE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PolE*ROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3.250003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ColoRect_AdenoCA__Ageing+SBS28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBS28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ageing*SBS28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-5.646689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lung_SCC__Ageing+Tobacco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tobacco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ageing*Tobacco</t>
-  </si>
-  <si>
     <t xml:space="preserve">-30.47376</t>
   </si>
   <si>
-    <t xml:space="preserve">Liver_HCC__Ageing+SBS12</t>
+    <t xml:space="preserve">Liver_HCC__SBS29+Tobacco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBS29*Tobacco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-340.2055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liver_HCC__CL SBS1+SBS12</t>
   </si>
   <si>
     <t xml:space="preserve">SBS12</t>
   </si>
   <si>
-    <t xml:space="preserve">Ageing*SBS12</t>
+    <t xml:space="preserve">CL SBS1*SBS12</t>
   </si>
   <si>
     <t xml:space="preserve">-338.8921</t>
@@ -936,13 +1267,13 @@
     <t xml:space="preserve">    LR = 2.148,   p = 0.143</t>
   </si>
   <si>
-    <t xml:space="preserve">statusAgeing</t>
+    <t xml:space="preserve">statusCL SBS1</t>
   </si>
   <si>
     <t xml:space="preserve">statusSBS12</t>
   </si>
   <si>
-    <t xml:space="preserve">statusAgeing+SBS12</t>
+    <t xml:space="preserve">statusCL SBS1+SBS12</t>
   </si>
   <si>
     <t xml:space="preserve">Fine: p = 0.412</t>
@@ -993,109 +1324,10 @@
     <t xml:space="preserve">Liver_HCC__SBS40+SBS29</t>
   </si>
   <si>
-    <t xml:space="preserve">SBS29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBS29*SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-337.6410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-337.7143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.146,   p = 0.729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.146,   p = 0.702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-337.9715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.261,   p = 0.603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.261,   p = 0.397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.261,   two-sided p = 0.7941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-337.9913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.554,   p = 0.499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.554,   p = 0.457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS29+SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -4.023,   p = 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -4.023,   p = 2.869e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -4.023,   two-sided p = 5.739e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -2.067,   p = 0.981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -2.067,   p = 0.01936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -2.067,   two-sided p = 0.03872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -9.389,   p = 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -9.389,   p = &lt; 2.2e-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -9.389,   two-sided p = &lt; 2.2e-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.855,   p = 0.804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.855,   p = 0.1962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.855,   two-sided p = 0.3924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.0282879300777376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liver_HCC__Ageing+SBS29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ageing*SBS29</t>
+    <t xml:space="preserve">Liver_HCC__CL SBS1+SBS29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL SBS1*SBS29</t>
   </si>
   <si>
     <t xml:space="preserve">-339.7885</t>
@@ -1140,7 +1372,7 @@
     <t xml:space="preserve">    LR = 0.857,   p = 0.354</t>
   </si>
   <si>
-    <t xml:space="preserve">statusAgeing+SBS29</t>
+    <t xml:space="preserve">statusCL SBS1+SBS29</t>
   </si>
   <si>
     <t xml:space="preserve">Fine: p = 0.663</t>
@@ -1191,340 +1423,136 @@
     <t xml:space="preserve">Liver_HCC__Tobacco+SBS29</t>
   </si>
   <si>
-    <t xml:space="preserve">SBS29*Tobacco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-340.2055</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lymph_BNHL__SBS40+SBS34</t>
   </si>
   <si>
-    <t xml:space="preserve">SBS34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBS34*SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-22.21631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-25.82102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 7.209,   p = 0.0114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 7.209,   p = 0.00725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-22.75788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.083,   p = 0.318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.083,   p = 0.298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-27.75874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 10.002,   p = 0.00294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 10.002,   p = 0.00156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS34+SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.556,   p = 0.711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.556,   p = 0.2892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.556,   two-sided p = 0.5785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.889,   p = 0.813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.889,   p = 0.1869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.889,   two-sided p = 0.3738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.288,   p = 0.387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.288,   p = 0.6134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.288,   two-sided p = 0.7732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.106,   p = 0.866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.106,   p = 0.1344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.106,   two-sided p = 0.2689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.998649715752122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lymph_CLL__Ageing+PolH</t>
+    <t xml:space="preserve">Lymph_CLL__CL SBS1+PolH</t>
   </si>
   <si>
     <t xml:space="preserve">PolH</t>
   </si>
   <si>
-    <t xml:space="preserve">Ageing*PolH</t>
+    <t xml:space="preserve">CL SBS1*PolH</t>
   </si>
   <si>
     <t xml:space="preserve">-117.6912</t>
   </si>
   <si>
+    <t xml:space="preserve">Skin_Melanoma__UV+SBS38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBS38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBS38*UV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-215.8985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-216.2973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.798,   p = 0.344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.798,   p = 0.372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-216.8716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.311,   p = 0.622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.311,   p = 0.3778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.311,   two-sided p = 0.7556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-217.2784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.962,   p = 0.159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.962,   p = 0.161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS38+UV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.630,   p = 0.948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.630,   p = 0.05153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.630,   two-sided p = 0.1031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.716,   p = 0.763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.716,   p = 0.2369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.716,   two-sided p = 0.4737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.703,   p = 0.956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.703,   p = 0.04432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.703,   two-sided p = 0.08865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.384,   p = 0.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.384,   p = 0.6496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.384,   two-sided p = 0.7007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.12941733672415</t>
+  </si>
+  <si>
     <t xml:space="preserve">Skin_Melanoma__APOBEC+UV</t>
   </si>
   <si>
-    <t xml:space="preserve">UV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APOBEC*UV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-216.7786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-217.0658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.575,   p = 0.449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.575,   p = 0.448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-217.3256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.199,   p = 0.579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.199,   p = 0.4212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.199,   two-sided p = 0.8424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-217.5540</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.976,   p = 0.309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.976,   p = 0.323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAPOBEC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusUV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAPOBEC+UV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -2.788,   p = 0.997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -2.788,   p = 0.002656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -2.788,   two-sided p = 0.005311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.601,   p = 0.945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.601,   p = 0.05472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.601,   two-sided p = 0.1094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -2.539,   p = 0.994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -2.539,   p = 0.005556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -2.539,   two-sided p = 0.01111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.247,   p = 0.597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.247,   p = 0.4026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.247,   two-sided p = 0.8052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.166504670669262</t>
-  </si>
-  <si>
     <t xml:space="preserve">Skin_Melanoma__SBS40+UV</t>
   </si>
   <si>
-    <t xml:space="preserve">SBS40*UV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-217.0472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skin_Melanoma__Ageing+UV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ageing*UV</t>
+    <t xml:space="preserve">Skin_Melanoma__CL SBS1+UV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL SBS1*UV</t>
   </si>
   <si>
     <t xml:space="preserve">-217.1256</t>
   </si>
   <si>
     <t xml:space="preserve">Skin_Melanoma__SBS38+UV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBS38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBS38*UV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-215.8985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-216.2973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.798,   p = 0.344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.798,   p = 0.372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-216.8716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.311,   p = 0.622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.311,   p = 0.3778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.311,   two-sided p = 0.7556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-217.2784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.962,   p = 0.159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.962,   p = 0.161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS38+UV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.630,   p = 0.948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.630,   p = 0.05153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.630,   two-sided p = 0.1031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.716,   p = 0.763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.716,   p = 0.2369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.716,   two-sided p = 0.4737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.703,   p = 0.956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.703,   p = 0.04432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.703,   two-sided p = 0.08865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.384,   p = 0.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.384,   p = 0.6496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.384,   two-sided p = 0.7007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.12941733672415</t>
   </si>
 </sst>
 </file>
@@ -1871,7 +1899,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2">
@@ -1946,7 +1974,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="B8" t="n">
         <v>-0.142489687771666</v>
@@ -1986,7 +2014,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="B10" t="n">
         <v>1.86978884613073</v>
@@ -2019,20 +2047,20 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>299</v>
       </c>
       <c r="B14" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38">
@@ -2077,7 +2105,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="B40" t="n">
         <v>-0.141168750527201</v>
@@ -2117,7 +2145,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="B42" t="n">
         <v>1.86827427434896</v>
@@ -2150,15 +2178,15 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>119</v>
+        <v>299</v>
       </c>
       <c r="B47" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51">
@@ -2168,72 +2196,72 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>331</v>
+        <v>303</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71">
@@ -2278,7 +2306,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="B73" t="n">
         <v>-0.160174915190404</v>
@@ -2318,7 +2346,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="B75" t="n">
         <v>1.85970998838181</v>
@@ -2351,15 +2379,15 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>119</v>
+        <v>299</v>
       </c>
       <c r="B80" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="84">
@@ -2369,72 +2397,72 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="104">
@@ -2459,7 +2487,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="B105" t="n">
         <v>-0.158556850405158</v>
@@ -2499,7 +2527,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="B107" t="n">
         <v>1.85958112614123</v>
@@ -2532,15 +2560,15 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>119</v>
+        <v>299</v>
       </c>
       <c r="B113" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="117">
@@ -2550,72 +2578,72 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="137">
@@ -2680,7 +2708,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="B140" t="n">
         <v>-0.142489687771666</v>
@@ -2700,7 +2728,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="B141" t="n">
         <v>0.261391848055468</v>
@@ -2720,7 +2748,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="B142" t="n">
         <v>1.98869100641453</v>
@@ -2753,15 +2781,15 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>119</v>
+        <v>299</v>
       </c>
       <c r="B146" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="150">
@@ -2771,72 +2799,72 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="170">
@@ -2881,7 +2909,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="B172" t="n">
         <v>-0.141168750527201</v>
@@ -2901,7 +2929,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="B173" t="n">
         <v>0.262565288861878</v>
@@ -2921,7 +2949,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="B174" t="n">
         <v>1.98967081268364</v>
@@ -2954,15 +2982,15 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>119</v>
+        <v>299</v>
       </c>
       <c r="B179" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="183">
@@ -2972,72 +3000,72 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="203">
@@ -3082,7 +3110,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="B205" t="n">
         <v>-0.160174915190403</v>
@@ -3102,7 +3130,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="B206" t="n">
         <v>0.257191825689398</v>
@@ -3122,7 +3150,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="B207" t="n">
         <v>1.9567268988808</v>
@@ -3155,15 +3183,15 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>119</v>
+        <v>299</v>
       </c>
       <c r="B212" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="216">
@@ -3173,72 +3201,72 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="236">
@@ -3263,7 +3291,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="B237" t="n">
         <v>-0.158556850405157</v>
@@ -3283,7 +3311,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="B238" t="n">
         <v>0.257949815962578</v>
@@ -3303,7 +3331,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="B239" t="n">
         <v>1.95897409169865</v>
@@ -3318,7 +3346,7 @@
         <v>2.66972365735477</v>
       </c>
       <c r="F239" t="n">
-        <v>0.00759136962040103</v>
+        <v>0.00759136962040104</v>
       </c>
     </row>
     <row r="243">
@@ -3336,15 +3364,15 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>119</v>
+        <v>299</v>
       </c>
       <c r="B245" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="249">
@@ -3354,72 +3382,1639 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>160</v>
+        <v>92</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>358</v>
+        <v>330</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.00488815359011484</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.995123773990117</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0127387972051171</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.383721752643279</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.701184688325336</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.196266642964118</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.21685132692473</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.244294879378479</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.803400560271456</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.421743251307602</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.142489687771666</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.867196496974433</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.263824949017977</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.540091785489008</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.589133735422368</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.261391848055468</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.29873647310108</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.415053402618127</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.629778834257537</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.528839295527065</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>298</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.86978884613073</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.48692651503029</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.847857582732308</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.20531004759684</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0274323452637027</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>299</v>
+      </c>
+      <c r="B14" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.174406317311478</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.19053920424706</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.236930338816147</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.736107997747025</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.461664975950369</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>297</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.141168750527201</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.868342766033627</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.26378463457264</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-0.535166692919433</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.592534595622554</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.262565288861878</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.30026135798149</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.415012197386604</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.63266884808517</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.526949916995089</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>298</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1.86827427434896</v>
+      </c>
+      <c r="C42" t="n">
+        <v>6.47710903569554</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.847845936207958</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2.20355396489241</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0275557278245671</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>299</v>
+      </c>
+      <c r="B47" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" t="n">
+        <v>-0.0024225482744978</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.997580383727457</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.0121635810860215</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-0.199164066681137</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.842134406933589</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>297</v>
+      </c>
+      <c r="B73" t="n">
+        <v>-0.160174915190404</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.85199474910816</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.262541770831539</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-0.610093070840072</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.541800156459123</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.257191825689397</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1.29329318982389</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.415055612890741</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.619656300749992</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.535484091605549</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>298</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1.85970998838181</v>
+      </c>
+      <c r="C75" t="n">
+        <v>6.42187408324689</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.847855098013431</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2.19342903373372</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.0282764823949708</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>299</v>
+      </c>
+      <c r="B80" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>297</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-0.158556850405158</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.853374447728764</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.262416572071906</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-0.604218129797499</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.545698628931078</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>12</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.257949815962578</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1.29427386510636</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.415018178630674</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.621538595763845</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.534245308235761</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>298</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1.85958112614123</v>
+      </c>
+      <c r="C107" t="n">
+        <v>6.42104659948067</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.847857813391648</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2.1932700233102</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.0282879300777376</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>15</v>
+      </c>
+      <c r="B112" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>299</v>
+      </c>
+      <c r="B113" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>3</v>
+      </c>
+      <c r="B137" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137" t="s">
+        <v>5</v>
+      </c>
+      <c r="D137" t="s">
+        <v>6</v>
+      </c>
+      <c r="E137" t="s">
+        <v>7</v>
+      </c>
+      <c r="F137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138" t="n">
+        <v>-0.00488815359011484</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.995123773990117</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.0127387972051171</v>
+      </c>
+      <c r="E138" t="n">
+        <v>-0.38372175264328</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.701184688325336</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>10</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.196266642964118</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1.21685132692473</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.244294879378479</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.803400560271456</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.421743251307602</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>314</v>
+      </c>
+      <c r="B140" t="n">
+        <v>-0.142489687771666</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.867196496974433</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.263824949017977</v>
+      </c>
+      <c r="E140" t="n">
+        <v>-0.540091785489008</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.589133735422368</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>132</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.261391848055468</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1.29873647310108</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.415053402618127</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.629778834257537</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.528839295527065</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>315</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1.98869100641453</v>
+      </c>
+      <c r="C142" t="n">
+        <v>7.30596404025926</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.735432445967609</v>
+      </c>
+      <c r="E142" t="n">
+        <v>2.70411105373249</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.00684873957365713</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>15</v>
+      </c>
+      <c r="B145" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>299</v>
+      </c>
+      <c r="B146" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>3</v>
+      </c>
+      <c r="B170" t="s">
+        <v>4</v>
+      </c>
+      <c r="C170" t="s">
+        <v>5</v>
+      </c>
+      <c r="D170" t="s">
+        <v>6</v>
+      </c>
+      <c r="E170" t="s">
+        <v>7</v>
+      </c>
+      <c r="F170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>10</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.174406317311478</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1.19053920424706</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.236930338816147</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.736107997747025</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.461664975950369</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>314</v>
+      </c>
+      <c r="B172" t="n">
+        <v>-0.141168750527201</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.868342766033627</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.26378463457264</v>
+      </c>
+      <c r="E172" t="n">
+        <v>-0.535166692919434</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.592534595622553</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>132</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.262565288861878</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1.30026135798149</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.415012197386604</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.632668848085169</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.52694991699509</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>315</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1.98967081268364</v>
+      </c>
+      <c r="C174" t="n">
+        <v>7.31312597771043</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.735280641274585</v>
+      </c>
+      <c r="E174" t="n">
+        <v>2.70600190049151</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.00680986562427333</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>15</v>
+      </c>
+      <c r="B178" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>299</v>
+      </c>
+      <c r="B179" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>3</v>
+      </c>
+      <c r="B203" t="s">
+        <v>4</v>
+      </c>
+      <c r="C203" t="s">
+        <v>5</v>
+      </c>
+      <c r="D203" t="s">
+        <v>6</v>
+      </c>
+      <c r="E203" t="s">
+        <v>7</v>
+      </c>
+      <c r="F203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>9</v>
+      </c>
+      <c r="B204" t="n">
+        <v>-0.0024225482744978</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.997580383727457</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.0121635810860215</v>
+      </c>
+      <c r="E204" t="n">
+        <v>-0.199164066681136</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.84213440693359</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>314</v>
+      </c>
+      <c r="B205" t="n">
+        <v>-0.160174915190403</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0.851994749108161</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.262541770831539</v>
+      </c>
+      <c r="E205" t="n">
+        <v>-0.610093070840068</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.541800156459126</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>132</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0.257191825689398</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1.29329318982389</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.415055612890741</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0.619656300749994</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.535484091605547</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>315</v>
+      </c>
+      <c r="B207" t="n">
+        <v>1.9567268988808</v>
+      </c>
+      <c r="C207" t="n">
+        <v>7.07612823656117</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.733927312643563</v>
+      </c>
+      <c r="E207" t="n">
+        <v>2.66610448360722</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0.00767358400441233</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>15</v>
+      </c>
+      <c r="B211" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>299</v>
+      </c>
+      <c r="B212" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>3</v>
+      </c>
+      <c r="B236" t="s">
+        <v>4</v>
+      </c>
+      <c r="C236" t="s">
+        <v>5</v>
+      </c>
+      <c r="D236" t="s">
+        <v>6</v>
+      </c>
+      <c r="E236" t="s">
+        <v>7</v>
+      </c>
+      <c r="F236" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>314</v>
+      </c>
+      <c r="B237" t="n">
+        <v>-0.158556850405157</v>
+      </c>
+      <c r="C237" t="n">
+        <v>0.853374447728764</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0.262416572071906</v>
+      </c>
+      <c r="E237" t="n">
+        <v>-0.604218129797498</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0.545698628931078</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>132</v>
+      </c>
+      <c r="B238" t="n">
+        <v>0.257949815962578</v>
+      </c>
+      <c r="C238" t="n">
+        <v>1.29427386510636</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0.415018178630674</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0.621538595763846</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0.53424530823576</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>315</v>
+      </c>
+      <c r="B239" t="n">
+        <v>1.95897409169865</v>
+      </c>
+      <c r="C239" t="n">
+        <v>7.09204754128697</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0.733774106657787</v>
+      </c>
+      <c r="E239" t="n">
+        <v>2.66972365735477</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0.00759136962040104</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>15</v>
+      </c>
+      <c r="B244" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>299</v>
+      </c>
+      <c r="B245" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
